--- a/file_list.xlsx
+++ b/file_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unilj-my.sharepoint.com/personal/stebej_fdv_uni-lj_si/Documents/Collectivism_covid-19_SSD2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{B93985A0-49F5-400F-8EC3-58B3F82369C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAC864FF-C060-40FE-BABF-B9BA924FA6C5}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{B93985A0-49F5-400F-8EC3-58B3F82369C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{741C7192-C42C-4087-B581-327F54BEEE28}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="870" windowWidth="36585" windowHeight="16470" xr2:uid="{390961B6-0B85-45E6-A83B-18AE25EB2DF5}"/>
+    <workbookView xWindow="-285" yWindow="2835" windowWidth="36585" windowHeight="16470" xr2:uid="{390961B6-0B85-45E6-A83B-18AE25EB2DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,15 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,10 +249,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -260,8 +270,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,7 +615,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,11 +866,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -884,7 +898,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{64771E27-EE53-464A-8F85-B2E332DA9917}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>